--- a/nation_info.xlsx
+++ b/nation_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/olympics_covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0BF02-1CB9-B34A-977F-EC7E39916406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69302278-7EF8-6C4A-8305-608DB34721D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="500" windowWidth="21620" windowHeight="16360" xr2:uid="{BF953D79-4A18-EC4A-B979-4D15337C5DF6}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t xml:space="preserve">US </t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -93,10 +90,13 @@
     <t>vrates</t>
   </si>
   <si>
+    <t>Russia</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -132,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,29 +449,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9F15DF-FC15-8A46-8C95-EFF3DCC2AAA6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -480,8 +484,14 @@
       <c r="C2">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>171</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25499884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,8 +501,14 @@
       <c r="C3">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10708981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -502,8 +518,14 @@
       <c r="C4">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>5920</v>
+      </c>
+      <c r="E4" s="1">
+        <v>128932753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,8 +535,14 @@
       <c r="C5">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>363</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2540905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -524,10 +552,16 @@
       <c r="C6">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>5390</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17134872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>338</v>
@@ -535,8 +569,14 @@
       <c r="C7">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>23276</v>
+      </c>
+      <c r="E7" s="1">
+        <v>145934462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -546,8 +586,14 @@
       <c r="C8">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>332</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8737371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -557,8 +603,14 @@
       <c r="C9">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>5667</v>
+      </c>
+      <c r="E9" s="1">
+        <v>59308690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -568,10 +620,16 @@
       <c r="C10">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>28937</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67886011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>652</v>
@@ -579,10 +637,16 @@
       <c r="C11">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>119158</v>
+      </c>
+      <c r="E11" s="1">
+        <v>331002651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>57</v>
@@ -590,10 +654,16 @@
       <c r="C12">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1645</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19116201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>93</v>
@@ -601,10 +671,16 @@
       <c r="C13">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>3794</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10196709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>321</v>
@@ -612,10 +688,16 @@
       <c r="C14">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>46754778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>425</v>
@@ -623,10 +705,16 @@
       <c r="C15">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1578</v>
+      </c>
+      <c r="E15" s="1">
+        <v>83783942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>41</v>
@@ -634,10 +722,16 @@
       <c r="C16">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1305</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43851044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>82</v>
@@ -645,10 +739,16 @@
       <c r="C17">
         <v>53.52</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2472</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10423054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>33</v>
@@ -656,10 +756,16 @@
       <c r="C18">
         <v>22.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>243</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1399488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>381</v>
@@ -667,10 +773,16 @@
       <c r="C19">
         <v>61.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>5142</v>
+      </c>
+      <c r="E19" s="1">
+        <v>60461826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>189</v>
@@ -678,16 +790,11 @@
       <c r="C20">
         <v>51.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>634</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="D20">
+        <v>15622</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45195774</v>
       </c>
     </row>
   </sheetData>

--- a/nation_info.xlsx
+++ b/nation_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/olympics_covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69302278-7EF8-6C4A-8305-608DB34721D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A5AFB-129C-7F42-A383-ACE86B9BF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="500" windowWidth="21620" windowHeight="16360" xr2:uid="{BF953D79-4A18-EC4A-B979-4D15337C5DF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>#ath</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>population</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9F15DF-FC15-8A46-8C95-EFF3DCC2AAA6}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,6 +800,23 @@
         <v>45195774</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>131</v>
+      </c>
+      <c r="C21">
+        <v>31.5</v>
+      </c>
+      <c r="D21">
+        <v>4653</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11460000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
